--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lamb\Dragonverse neo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39115F1-7DB6-4E86-8252-213A790B9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12450" windowHeight="17600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,6 +59,9 @@
     <t>descCN</t>
   </si>
   <si>
+    <t>Buffid</t>
+  </si>
+  <si>
     <t>Buff名称</t>
   </si>
   <si>
@@ -81,6 +80,9 @@
     <t>描述备注</t>
   </si>
   <si>
+    <t>TalentTree_Name_1</t>
+  </si>
+  <si>
     <t>物理基础</t>
   </si>
   <si>
@@ -90,12 +92,30 @@
     <t>物理伤害提高{0}%</t>
   </si>
   <si>
+    <t>TalentTree_Name_2</t>
+  </si>
+  <si>
     <t>魔法学识</t>
   </si>
   <si>
     <t>魔法伤害提高{0}%</t>
   </si>
   <si>
+    <t>TalentTree_Name_3</t>
+  </si>
+  <si>
+    <t>基地耐久</t>
+  </si>
+  <si>
+    <t>100|200|300</t>
+  </si>
+  <si>
+    <t>基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_4</t>
+  </si>
+  <si>
     <t>攻速增强</t>
   </si>
   <si>
@@ -105,506 +125,774 @@
     <t>攻击速度提高{0}%</t>
   </si>
   <si>
+    <t>TalentTree_Name_5</t>
+  </si>
+  <si>
+    <t>天降能量</t>
+  </si>
+  <si>
+    <t>10|20</t>
+  </si>
+  <si>
+    <t>每个波次获得{0}能量</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_6</t>
+  </si>
+  <si>
+    <t>矿机升级</t>
+  </si>
+  <si>
+    <t>20|40|60|80|100</t>
+  </si>
+  <si>
+    <t>能量单位产出能量效率提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_7</t>
+  </si>
+  <si>
+    <t>光元素增伤</t>
+  </si>
+  <si>
+    <t>光属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_8</t>
+  </si>
+  <si>
+    <t>水元素增伤</t>
+  </si>
+  <si>
+    <t>水属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_9</t>
+  </si>
+  <si>
+    <t>土元素增伤</t>
+  </si>
+  <si>
+    <t>土属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_10</t>
+  </si>
+  <si>
+    <t>耐久恢复</t>
+  </si>
+  <si>
+    <t>50|100</t>
+  </si>
+  <si>
+    <t>基地每个波次恢复{0}耐久</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_11</t>
+  </si>
+  <si>
+    <t>暗元素增伤</t>
+  </si>
+  <si>
+    <t>暗属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_12</t>
+  </si>
+  <si>
+    <t>火元素增伤</t>
+  </si>
+  <si>
+    <t>火属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_13</t>
+  </si>
+  <si>
+    <t>木元素增伤</t>
+  </si>
+  <si>
+    <t>木属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_14</t>
+  </si>
+  <si>
+    <t>敌方减速</t>
+  </si>
+  <si>
+    <t>0.5|1|1.5</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内减速{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_15</t>
+  </si>
+  <si>
+    <t>慧光</t>
+  </si>
+  <si>
+    <t>0.5|1|1.5|2</t>
+  </si>
+  <si>
+    <t>敌方受到伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_16</t>
+  </si>
+  <si>
     <t>距离增强</t>
   </si>
   <si>
-    <t>光属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>暗元素增伤</t>
-  </si>
-  <si>
-    <t>暗属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>水元素增伤</t>
-  </si>
-  <si>
-    <t>水属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>火元素增伤</t>
-  </si>
-  <si>
-    <t>火属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>土元素增伤</t>
-  </si>
-  <si>
-    <t>土属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>木元素增伤</t>
-  </si>
-  <si>
-    <t>木属性伤害提高{0}%</t>
+    <t>0.5|1.0</t>
+  </si>
+  <si>
+    <t>攻击范围提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_17</t>
   </si>
   <si>
     <t>物理斩杀</t>
   </si>
   <si>
+    <t>物理伤害对于血量低于20%的敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_18</t>
+  </si>
+  <si>
+    <t>黯灭</t>
+  </si>
+  <si>
+    <t>5|10|15|20</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内护甲减少{0}</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_19</t>
+  </si>
+  <si>
+    <t>希瓦</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内魔抗减少{0}</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_20</t>
+  </si>
+  <si>
+    <t>高射火炮</t>
+  </si>
+  <si>
+    <t>对空中敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_21</t>
+  </si>
+  <si>
     <t>魔法压制</t>
   </si>
   <si>
-    <t>高射火炮</t>
+    <t>魔法伤害对于血量高于80%的敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_22</t>
+  </si>
+  <si>
+    <t>元素压制</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>元素克制时造成伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_23</t>
+  </si>
+  <si>
+    <t>元素抵抗</t>
+  </si>
+  <si>
+    <t>元素被克制时的伤害减免减少{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_24</t>
+  </si>
+  <si>
+    <t>慧光2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_25</t>
+  </si>
+  <si>
+    <t>物理精通</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_26</t>
+  </si>
+  <si>
+    <t>魔法升华</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_27</t>
+  </si>
+  <si>
+    <t>基地耐久2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_28</t>
+  </si>
+  <si>
+    <t>攻速增强2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_29</t>
+  </si>
+  <si>
+    <t>天降能量2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_30</t>
+  </si>
+  <si>
+    <t>矿机升级2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_31</t>
   </si>
   <si>
     <t>光元素伤害加成2</t>
   </si>
   <si>
+    <t>TalentTree_Name_32</t>
+  </si>
+  <si>
     <t>暗元素伤害加成2</t>
   </si>
   <si>
+    <t>TalentTree_Name_33</t>
+  </si>
+  <si>
     <t>水元素伤害加成2</t>
   </si>
   <si>
+    <t>TalentTree_Name_34</t>
+  </si>
+  <si>
+    <t>耐久恢复2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_35</t>
+  </si>
+  <si>
     <t>火元素伤害加成2</t>
   </si>
   <si>
+    <t>TalentTree_Name_36</t>
+  </si>
+  <si>
     <t>土元素伤害加成2</t>
   </si>
   <si>
+    <t>TalentTree_Name_37</t>
+  </si>
+  <si>
     <t>木元素伤害加成2</t>
   </si>
   <si>
-    <t>基地耐久</t>
-  </si>
-  <si>
-    <t>100|200|300</t>
-  </si>
-  <si>
-    <t>基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>天降能量</t>
-  </si>
-  <si>
-    <t>10|20</t>
-  </si>
-  <si>
-    <t>每个波次获得{0}能量</t>
-  </si>
-  <si>
-    <t>耐久恢复</t>
-  </si>
-  <si>
-    <t>50|100</t>
-  </si>
-  <si>
-    <t>基地每个波次恢复{0}耐久</t>
-  </si>
-  <si>
-    <t>矿机升级</t>
-  </si>
-  <si>
-    <t>20|40|60|80|100</t>
-  </si>
-  <si>
-    <t>能量单位产出能量效率提高{0}%</t>
-  </si>
-  <si>
-    <t>慧光</t>
-  </si>
-  <si>
-    <t>0.5|1|1.5|2</t>
-  </si>
-  <si>
-    <t>敌方受到伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>敌方减速</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内减速{0}%</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_47</t>
+    <t>TalentTree_Name_38</t>
+  </si>
+  <si>
+    <t>敌方减速2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_39</t>
+  </si>
+  <si>
+    <t>慧光3</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_40</t>
+  </si>
+  <si>
+    <t>距离增强2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_41</t>
+  </si>
+  <si>
+    <t>物理斩杀2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_42</t>
+  </si>
+  <si>
+    <t>黯灭2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_43</t>
+  </si>
+  <si>
+    <t>希瓦2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_44</t>
+  </si>
+  <si>
+    <t>高射火炮2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_45</t>
+  </si>
+  <si>
+    <t>魔法压制2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_46</t>
+  </si>
+  <si>
+    <t>慧光4</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_47</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>在无尽模式下，物理伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_48</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>在无尽模式下，魔法伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_49</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
+    <t>在无尽模式下，基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2001</t>
   </si>
   <si>
     <t>物理（龙娘祝福）</t>
   </si>
   <si>
-    <t>TalentBuff_Name_48</t>
+    <t>TalentBuff_Name_2002</t>
   </si>
   <si>
     <t>魔法（龙娘祝福）</t>
   </si>
   <si>
-    <t>TalentBuff_Name_49</t>
+    <t>TalentBuff_Name_2003</t>
   </si>
   <si>
     <t xml:space="preserve"> 攻击距离（龙娘祝福）</t>
   </si>
   <si>
-    <t>TalentBuff_Name_50</t>
-  </si>
-  <si>
-    <t>减速固定值 (龙娘祝福）如果是减速用负数</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_51</t>
+    <t>TalentBuff_Name_2004</t>
+  </si>
+  <si>
+    <t>减速 (龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2005</t>
   </si>
   <si>
     <t>基地血量 (龙娘祝福）</t>
   </si>
   <si>
-    <t>TalentBuff_Name_52</t>
+    <t>TalentBuff_Name_2006</t>
   </si>
   <si>
     <t>攻击速度 (龙娘祝福）</t>
-  </si>
-  <si>
-    <t>攻击范围提高{0}%</t>
-  </si>
-  <si>
-    <t>物理伤害对于血量低于20%的敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>对空中敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内护甲减少{0}</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内魔抗减少{0}</t>
-  </si>
-  <si>
-    <t>元素克制时造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>元素被克制时的伤害减免减少{0}%</t>
-  </si>
-  <si>
-    <t>在无尽模式下，物理伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>在无尽模式下，魔法伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>0.5|1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害对于血量高于80%的敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>5|10|15|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5|1|1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|200|300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_1</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_3</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_4</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_5</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_7</t>
-  </si>
-  <si>
-    <t>光元素增伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_8</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_9</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_10</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_11</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_12</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_13</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_14</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_15</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_16</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_17</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_18</t>
-  </si>
-  <si>
-    <t>黯灭</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_19</t>
-  </si>
-  <si>
-    <t>希瓦</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_20</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_21</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_22</t>
-  </si>
-  <si>
-    <t>元素压制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_23</t>
-  </si>
-  <si>
-    <t>元素抵抗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_24</t>
-  </si>
-  <si>
-    <t>慧光2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_25</t>
-  </si>
-  <si>
-    <t>物理精通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_26</t>
-  </si>
-  <si>
-    <t>魔法升华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_27</t>
-  </si>
-  <si>
-    <t>基地耐久2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_28</t>
-  </si>
-  <si>
-    <t>天降能量2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_29</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_30</t>
-  </si>
-  <si>
-    <t>矿机升级2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_31</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_32</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_33</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_34</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_35</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_36</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_37</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_38</t>
-  </si>
-  <si>
-    <t>敌方减速2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_39</t>
-  </si>
-  <si>
-    <t>慧光3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_40</t>
-  </si>
-  <si>
-    <t>距离增强2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_41</t>
-  </si>
-  <si>
-    <t>物理斩杀2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_42</t>
-  </si>
-  <si>
-    <t>黯灭2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_43</t>
-  </si>
-  <si>
-    <t>希瓦2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_44</t>
-  </si>
-  <si>
-    <t>高射火炮2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_45</t>
-  </si>
-  <si>
-    <t>魔法压制2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_46</t>
-  </si>
-  <si>
-    <t>慧光4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_47</t>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_48</t>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Name_49</t>
-  </si>
-  <si>
-    <t>耐久</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速增强2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -612,9 +900,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -628,24 +1158,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -895,29 +1469,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C41" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="40.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="4.45454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9090909090909" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81818181818182" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -963,409 +1537,409 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>90</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>96</v>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>88</v>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>84</v>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1377,87 +1951,87 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>87</v>
+      <c r="E22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>87</v>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1469,455 +2043,455 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>85</v>
+      <c r="E26" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>85</v>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>85</v>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>85</v>
+      <c r="E30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>163</v>
+        <v>105</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>88</v>
+      <c r="E42" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>84</v>
+      <c r="E44" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1929,87 +2503,87 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>87</v>
+      <c r="E46" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>87</v>
+      <c r="E47" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>84</v>
+      <c r="E48" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2021,242 +2595,242 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>100</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
-        <v>1050</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
-        <v>1051</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
-        <v>1052</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>1053</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
-        <v>1054</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>1055</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E566D71-18B3-4660-AB69-EF65CB1D91C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12450" windowHeight="17600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,375 +530,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -900,251 +576,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,61 +599,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1469,29 +859,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C42"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="40.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="4.45454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9090909090909" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81818181818182" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1560,10 +950,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="7:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1586,7 +976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -1609,7 +999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -1632,7 +1022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -1655,7 +1045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -1678,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -1701,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -1724,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -1747,7 +1137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -1770,7 +1160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -1793,7 +1183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1816,7 +1206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -1839,7 +1229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -1862,7 +1252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -1885,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -1908,7 +1298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -1931,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -1977,7 +1367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -2000,7 +1390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -2023,7 +1413,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -2046,7 +1436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -2069,7 +1459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -2092,7 +1482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -2115,7 +1505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -2138,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -2161,7 +1551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -2184,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -2207,7 +1597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -2230,7 +1620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -2253,7 +1643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -2276,7 +1666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -2299,7 +1689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -2322,7 +1712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -2345,7 +1735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -2368,7 +1758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -2391,7 +1781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -2414,7 +1804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -2437,7 +1827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -2460,7 +1850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -2483,7 +1873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
@@ -2506,7 +1896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
@@ -2529,7 +1919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
@@ -2552,7 +1942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
@@ -2575,7 +1965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -2598,7 +1988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
@@ -2621,7 +2011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
@@ -2644,7 +2034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
@@ -2667,7 +2057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
@@ -2690,7 +2080,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>2001</v>
       </c>
@@ -2713,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>2002</v>
       </c>
@@ -2736,7 +2126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>2003</v>
       </c>
@@ -2759,7 +2149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>2004</v>
       </c>
@@ -2782,7 +2172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>2005</v>
       </c>
@@ -2805,7 +2195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>2006</v>
       </c>
@@ -2829,8 +2219,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E566D71-18B3-4660-AB69-EF65CB1D91C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59FDA9-347D-4918-9FCB-682484933506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,9 +90,6 @@
     <t>物理基础</t>
   </si>
   <si>
-    <t>1|2</t>
-  </si>
-  <si>
     <t>物理伤害提高{0}%</t>
   </si>
   <si>
@@ -125,9 +120,6 @@
     <t>攻速增强</t>
   </si>
   <si>
-    <t>0.2|0.4|0.6</t>
-  </si>
-  <si>
     <t>攻击速度提高{0}%</t>
   </si>
   <si>
@@ -227,9 +219,6 @@
     <t>敌方减速</t>
   </si>
   <si>
-    <t>0.5|1|1.5</t>
-  </si>
-  <si>
     <t>敌方入场5秒内减速{0}%</t>
   </si>
   <si>
@@ -239,9 +228,6 @@
     <t>慧光</t>
   </si>
   <si>
-    <t>0.5|1|1.5|2</t>
-  </si>
-  <si>
     <t>敌方受到伤害提高{0}%</t>
   </si>
   <si>
@@ -251,9 +237,6 @@
     <t>距离增强</t>
   </si>
   <si>
-    <t>0.5|1.0</t>
-  </si>
-  <si>
     <t>攻击范围提高{0}%</t>
   </si>
   <si>
@@ -272,9 +255,6 @@
     <t>黯灭</t>
   </si>
   <si>
-    <t>5|10|15|20</t>
-  </si>
-  <si>
     <t>敌方入场5秒内护甲减少{0}</t>
   </si>
   <si>
@@ -311,227 +291,252 @@
     <t>元素压制</t>
   </si>
   <si>
+    <t>元素克制时造成伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_23</t>
+  </si>
+  <si>
+    <t>元素抵抗</t>
+  </si>
+  <si>
+    <t>元素被克制时的伤害减免减少{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_24</t>
+  </si>
+  <si>
+    <t>慧光2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_25</t>
+  </si>
+  <si>
+    <t>物理精通</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_26</t>
+  </si>
+  <si>
+    <t>魔法升华</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_27</t>
+  </si>
+  <si>
+    <t>基地耐久2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_28</t>
+  </si>
+  <si>
+    <t>攻速增强2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_29</t>
+  </si>
+  <si>
+    <t>天降能量2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_30</t>
+  </si>
+  <si>
+    <t>矿机升级2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_31</t>
+  </si>
+  <si>
+    <t>光元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_32</t>
+  </si>
+  <si>
+    <t>暗元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_33</t>
+  </si>
+  <si>
+    <t>水元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_34</t>
+  </si>
+  <si>
+    <t>耐久恢复2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_35</t>
+  </si>
+  <si>
+    <t>火元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_36</t>
+  </si>
+  <si>
+    <t>土元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_37</t>
+  </si>
+  <si>
+    <t>木元素伤害加成2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_38</t>
+  </si>
+  <si>
+    <t>敌方减速2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_39</t>
+  </si>
+  <si>
+    <t>慧光3</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_40</t>
+  </si>
+  <si>
+    <t>距离增强2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_41</t>
+  </si>
+  <si>
+    <t>物理斩杀2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_42</t>
+  </si>
+  <si>
+    <t>黯灭2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_43</t>
+  </si>
+  <si>
+    <t>希瓦2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_44</t>
+  </si>
+  <si>
+    <t>高射火炮2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_45</t>
+  </si>
+  <si>
+    <t>魔法压制2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_46</t>
+  </si>
+  <si>
+    <t>慧光4</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_47</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>在无尽模式下，物理伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_48</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>在无尽模式下，魔法伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_49</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
+    <t>在无尽模式下，基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2001</t>
+  </si>
+  <si>
+    <t>物理（龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2002</t>
+  </si>
+  <si>
+    <t>魔法（龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击距离（龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2004</t>
+  </si>
+  <si>
+    <t>减速 (龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2005</t>
+  </si>
+  <si>
+    <t>基地血量 (龙娘祝福）</t>
+  </si>
+  <si>
+    <t>TalentBuff_Name_2006</t>
+  </si>
+  <si>
+    <t>攻击速度 (龙娘祝福）</t>
+  </si>
+  <si>
+    <t>5|10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|4|6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1|2|3</t>
-  </si>
-  <si>
-    <t>元素克制时造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_23</t>
-  </si>
-  <si>
-    <t>元素抵抗</t>
-  </si>
-  <si>
-    <t>元素被克制时的伤害减免减少{0}%</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_24</t>
-  </si>
-  <si>
-    <t>慧光2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_25</t>
-  </si>
-  <si>
-    <t>物理精通</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_26</t>
-  </si>
-  <si>
-    <t>魔法升华</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_27</t>
-  </si>
-  <si>
-    <t>基地耐久2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_28</t>
-  </si>
-  <si>
-    <t>攻速增强2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_29</t>
-  </si>
-  <si>
-    <t>天降能量2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_30</t>
-  </si>
-  <si>
-    <t>矿机升级2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_31</t>
-  </si>
-  <si>
-    <t>光元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_32</t>
-  </si>
-  <si>
-    <t>暗元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_33</t>
-  </si>
-  <si>
-    <t>水元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_34</t>
-  </si>
-  <si>
-    <t>耐久恢复2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_35</t>
-  </si>
-  <si>
-    <t>火元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_36</t>
-  </si>
-  <si>
-    <t>土元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_37</t>
-  </si>
-  <si>
-    <t>木元素伤害加成2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_38</t>
-  </si>
-  <si>
-    <t>敌方减速2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_39</t>
-  </si>
-  <si>
-    <t>慧光3</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_40</t>
-  </si>
-  <si>
-    <t>距离增强2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_41</t>
-  </si>
-  <si>
-    <t>物理斩杀2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_42</t>
-  </si>
-  <si>
-    <t>黯灭2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_43</t>
-  </si>
-  <si>
-    <t>希瓦2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_44</t>
-  </si>
-  <si>
-    <t>高射火炮2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_45</t>
-  </si>
-  <si>
-    <t>魔法压制2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_46</t>
-  </si>
-  <si>
-    <t>慧光4</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_47</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>在无尽模式下，物理伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_48</t>
-  </si>
-  <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>在无尽模式下，魔法伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_49</t>
-  </si>
-  <si>
-    <t>耐久</t>
-  </si>
-  <si>
-    <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2001</t>
-  </si>
-  <si>
-    <t>物理（龙娘祝福）</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2002</t>
-  </si>
-  <si>
-    <t>魔法（龙娘祝福）</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击距离（龙娘祝福）</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2004</t>
-  </si>
-  <si>
-    <t>减速 (龙娘祝福）</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2005</t>
-  </si>
-  <si>
-    <t>基地血量 (龙娘祝福）</t>
-  </si>
-  <si>
-    <t>TalentBuff_Name_2006</t>
-  </si>
-  <si>
-    <t>攻击速度 (龙娘祝福）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|20|30|40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|10|15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,8 +559,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -582,20 +603,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,17 +894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -966,14 +993,14 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -981,22 +1008,22 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1004,22 +1031,22 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1027,22 +1054,22 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1050,22 +1077,22 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1073,22 +1100,22 @@
         <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1096,22 +1123,22 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1119,22 +1146,22 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1142,22 +1169,22 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1165,22 +1192,22 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1188,22 +1215,22 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1211,22 +1238,22 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1234,22 +1261,22 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1257,22 +1284,22 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1280,22 +1307,22 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
+      <c r="E19" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1303,22 +1330,22 @@
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>72</v>
+      <c r="E20" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1326,22 +1353,22 @@
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1349,22 +1376,22 @@
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>79</v>
+      <c r="E22" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1372,22 +1399,22 @@
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
+      <c r="E23" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1395,22 +1422,22 @@
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
+      <c r="E24" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1418,22 +1445,22 @@
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1441,22 +1468,22 @@
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>92</v>
+      <c r="E26" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1464,22 +1491,22 @@
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>92</v>
+      <c r="E27" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1487,22 +1514,22 @@
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
+      <c r="E28" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1510,22 +1537,22 @@
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
+      <c r="E29" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1533,22 +1560,22 @@
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
+      <c r="E30" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1556,22 +1583,22 @@
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1579,22 +1606,22 @@
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
+      <c r="E32" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1602,22 +1629,22 @@
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1625,22 +1652,22 @@
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1648,22 +1675,22 @@
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>19</v>
+      <c r="E35" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1671,22 +1698,22 @@
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
+      <c r="E36" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1694,22 +1721,22 @@
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>19</v>
+      <c r="E37" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1717,22 +1744,22 @@
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1740,22 +1767,22 @@
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>19</v>
+      <c r="E39" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1763,22 +1790,22 @@
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>19</v>
+      <c r="E40" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1786,22 +1813,22 @@
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>19</v>
+      <c r="E41" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1809,22 +1836,22 @@
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>64</v>
+      <c r="E42" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1832,22 +1859,22 @@
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>68</v>
+      <c r="E43" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1855,22 +1882,22 @@
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>72</v>
+      <c r="E44" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1878,22 +1905,22 @@
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1901,22 +1928,22 @@
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>79</v>
+      <c r="E46" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1924,22 +1951,22 @@
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>79</v>
+      <c r="E47" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1947,22 +1974,22 @@
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>72</v>
+      <c r="E48" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1970,22 +1997,22 @@
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1993,22 +2020,22 @@
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>68</v>
+      <c r="E50" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2016,22 +2043,22 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
       <c r="E51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2039,22 +2066,22 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2062,10 +2089,10 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2077,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2085,22 +2112,22 @@
         <v>2001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>92</v>
+      <c r="E54" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2108,22 +2135,22 @@
         <v>2002</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>92</v>
+      <c r="E55" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2131,22 +2158,22 @@
         <v>2003</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>64</v>
+      <c r="E56" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2154,22 +2181,22 @@
         <v>2004</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>64</v>
+      <c r="E57" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2177,22 +2204,22 @@
         <v>2005</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2200,26 +2227,26 @@
         <v>2006</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>30</v>
+      <c r="E59" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59FDA9-347D-4918-9FCB-682484933506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA4F314-DC4D-4D9C-91D2-A3045BE38961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>矿机升级</t>
   </si>
   <si>
-    <t>20|40|60|80|100</t>
-  </si>
-  <si>
     <t>能量单位产出能量效率提高{0}%</t>
   </si>
   <si>
@@ -529,6 +526,10 @@
   </si>
   <si>
     <t>5|10|15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|16|24|32|40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -894,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1017,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1063,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1108,14 +1109,14 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1123,22 +1124,22 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1146,22 +1147,22 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1169,22 +1170,22 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1192,22 +1193,22 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1215,22 +1216,22 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1238,22 +1239,22 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1261,22 +1262,22 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1284,22 +1285,22 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1307,22 +1308,22 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1330,22 +1331,22 @@
         <v>1016</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1353,10 +1354,10 @@
         <v>1017</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1368,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1376,22 +1377,22 @@
         <v>1018</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1399,22 +1400,22 @@
         <v>1019</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1422,22 +1423,22 @@
         <v>1020</v>
       </c>
       <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1445,10 +1446,10 @@
         <v>1021</v>
       </c>
       <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1460,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1468,22 +1469,22 @@
         <v>1022</v>
       </c>
       <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1491,22 +1492,22 @@
         <v>1023</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1514,22 +1515,22 @@
         <v>1024</v>
       </c>
       <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1537,16 +1538,16 @@
         <v>1025</v>
       </c>
       <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1560,16 +1561,16 @@
         <v>1026</v>
       </c>
       <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
@@ -1583,10 +1584,10 @@
         <v>1027</v>
       </c>
       <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1606,16 +1607,16 @@
         <v>1028</v>
       </c>
       <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
@@ -1629,10 +1630,10 @@
         <v>1029</v>
       </c>
       <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1652,22 +1653,22 @@
         <v>1030</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1675,22 +1676,22 @@
         <v>1031</v>
       </c>
       <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1698,22 +1699,22 @@
         <v>1032</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1721,22 +1722,22 @@
         <v>1033</v>
       </c>
       <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1744,22 +1745,22 @@
         <v>1034</v>
       </c>
       <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1767,22 +1768,22 @@
         <v>1035</v>
       </c>
       <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1790,22 +1791,22 @@
         <v>1036</v>
       </c>
       <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1813,22 +1814,22 @@
         <v>1037</v>
       </c>
       <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1836,22 +1837,22 @@
         <v>1038</v>
       </c>
       <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1859,22 +1860,22 @@
         <v>1039</v>
       </c>
       <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1882,22 +1883,22 @@
         <v>1040</v>
       </c>
       <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1905,10 +1906,10 @@
         <v>1041</v>
       </c>
       <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1920,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1928,22 +1929,22 @@
         <v>1042</v>
       </c>
       <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1951,22 +1952,22 @@
         <v>1043</v>
       </c>
       <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1974,22 +1975,22 @@
         <v>1044</v>
       </c>
       <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1997,10 +1998,10 @@
         <v>1045</v>
       </c>
       <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2012,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2020,22 +2021,22 @@
         <v>1046</v>
       </c>
       <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2043,22 +2044,22 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2066,22 +2067,22 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2089,10 +2090,10 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2104,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2112,16 +2113,16 @@
         <v>2001</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
@@ -2135,16 +2136,16 @@
         <v>2002</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -2158,22 +2159,22 @@
         <v>2003</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2181,22 +2182,22 @@
         <v>2004</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2204,10 +2205,10 @@
         <v>2005</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2227,16 +2228,16 @@
         <v>2006</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>

--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA4F314-DC4D-4D9C-91D2-A3045BE38961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661573F3-4310-4B01-B2B0-DED1014E6BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,43 +345,22 @@
     <t>TalentTree_Name_31</t>
   </si>
   <si>
-    <t>光元素伤害加成2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_32</t>
   </si>
   <si>
-    <t>暗元素伤害加成2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_33</t>
   </si>
   <si>
-    <t>水元素伤害加成2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_34</t>
   </si>
   <si>
-    <t>耐久恢复2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_35</t>
   </si>
   <si>
-    <t>火元素伤害加成2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_36</t>
   </si>
   <si>
-    <t>土元素伤害加成2</t>
-  </si>
-  <si>
     <t>TalentTree_Name_37</t>
-  </si>
-  <si>
-    <t>木元素伤害加成2</t>
   </si>
   <si>
     <t>TalentTree_Name_38</t>
@@ -531,6 +510,27 @@
   <si>
     <t>8|16|24|32|40</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光·Ⅱ</t>
+  </si>
+  <si>
+    <t>水·Ⅱ</t>
+  </si>
+  <si>
+    <t>土·Ⅱ</t>
+  </si>
+  <si>
+    <t>耐久恢复Ⅱ</t>
+  </si>
+  <si>
+    <t>暗·Ⅱ</t>
+  </si>
+  <si>
+    <t>火·Ⅱ</t>
+  </si>
+  <si>
+    <t>木·Ⅱ</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1679,13 +1679,13 @@
         <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
@@ -1699,16 +1699,16 @@
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -1722,16 +1722,16 @@
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -1745,10 +1745,10 @@
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1768,16 +1768,16 @@
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -1791,16 +1791,16 @@
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -1814,16 +1814,16 @@
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
@@ -1837,16 +1837,16 @@
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
@@ -1860,16 +1860,16 @@
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
@@ -1883,16 +1883,16 @@
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -1906,10 +1906,10 @@
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1929,16 +1929,16 @@
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -1952,16 +1952,16 @@
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -1975,16 +1975,16 @@
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -1998,10 +1998,10 @@
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2021,16 +2021,16 @@
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -2044,10 +2044,10 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2067,10 +2067,10 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2090,10 +2090,10 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2113,16 +2113,16 @@
         <v>2001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
@@ -2136,16 +2136,16 @@
         <v>2002</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -2159,16 +2159,16 @@
         <v>2003</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
@@ -2182,16 +2182,16 @@
         <v>2004</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2205,10 +2205,10 @@
         <v>2005</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2228,16 +2228,16 @@
         <v>2006</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>

--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661573F3-4310-4B01-B2B0-DED1014E6BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D73AD-288C-472C-8027-60B8DD734B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
   <si>
     <t>int</t>
   </si>
@@ -252,16 +252,10 @@
     <t>黯灭</t>
   </si>
   <si>
-    <t>敌方入场5秒内护甲减少{0}</t>
-  </si>
-  <si>
     <t>TalentTree_Name_19</t>
   </si>
   <si>
     <t>希瓦</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内魔抗减少{0}</t>
   </si>
   <si>
     <t>TalentTree_Name_20</t>
@@ -531,6 +525,22 @@
   </si>
   <si>
     <t>木·Ⅱ</t>
+  </si>
+  <si>
+    <t>10|20|30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方入场10秒内减速{0}%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方入场10秒内护甲减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方入场10秒内魔抗减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -895,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1018,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1064,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1110,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1133,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1156,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1179,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1225,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1248,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1271,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1294,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
+      <c r="G18" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1317,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1340,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -1386,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
+      <c r="G22" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1400,22 +1410,22 @@
         <v>1019</v>
       </c>
       <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
+      <c r="G23" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1423,22 +1433,22 @@
         <v>1020</v>
       </c>
       <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1446,10 +1456,10 @@
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1461,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1469,22 +1479,22 @@
         <v>1022</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1492,22 +1502,22 @@
         <v>1023</v>
       </c>
       <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1515,16 +1525,16 @@
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -1538,16 +1548,16 @@
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1561,16 +1571,16 @@
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
@@ -1584,10 +1594,10 @@
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1607,16 +1617,16 @@
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
@@ -1630,10 +1640,10 @@
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1653,16 +1663,16 @@
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1676,16 +1686,16 @@
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
@@ -1699,16 +1709,16 @@
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -1722,16 +1732,16 @@
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -1745,10 +1755,10 @@
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1768,16 +1778,16 @@
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -1791,16 +1801,16 @@
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -1814,16 +1824,16 @@
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
@@ -1837,22 +1847,22 @@
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>61</v>
+      <c r="G42" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1860,16 +1870,16 @@
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
@@ -1883,16 +1893,16 @@
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -1906,10 +1916,10 @@
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1929,22 +1939,22 @@
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>73</v>
+      <c r="G46" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1952,22 +1962,22 @@
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>76</v>
+      <c r="G47" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1975,22 +1985,22 @@
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1998,10 +2008,10 @@
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2013,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2021,16 +2031,16 @@
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -2044,22 +2054,22 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2067,22 +2077,22 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2090,10 +2100,10 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2105,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2113,16 +2123,16 @@
         <v>2001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
@@ -2136,16 +2146,16 @@
         <v>2002</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -2159,16 +2169,16 @@
         <v>2003</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
@@ -2182,16 +2192,16 @@
         <v>2004</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2205,10 +2215,10 @@
         <v>2005</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2228,16 +2238,16 @@
         <v>2006</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>

--- a/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
+++ b/nevergiveup/Excel/TalentBuff_天赋数值表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D73AD-288C-472C-8027-60B8DD734B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AFD42-473A-4FCA-9405-700BF9A9F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
   <si>
     <t>int</t>
   </si>
@@ -540,6 +540,10 @@
   </si>
   <si>
     <t>敌方入场10秒内魔抗减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|200</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1602,8 +1606,8 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
+      <c r="E31" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1626,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
